--- a/chats/50249984139@c.us.xlsx
+++ b/chats/50249984139@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Fecha</t>
   </si>
@@ -47,6 +47,45 @@
   </si>
   <si>
     <t>A Numa</t>
+  </si>
+  <si>
+    <t>03-05-2022 08:44</t>
+  </si>
+  <si>
+    <t>03-05-2022 08:45</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>03-05-2022 08:50</t>
+  </si>
+  <si>
+    <t>03-05-2022 08:55</t>
+  </si>
+  <si>
+    <t>03-05-2022 08:57</t>
+  </si>
+  <si>
+    <t>03-05-2022 08:59</t>
+  </si>
+  <si>
+    <t>quiero_info</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:03</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:04</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:22</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:23</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:24</t>
   </si>
 </sst>
 </file>
@@ -423,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,6 +545,166 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/chats/50249984139@c.us.xlsx
+++ b/chats/50249984139@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Fecha</t>
   </si>
@@ -86,6 +86,33 @@
   </si>
   <si>
     <t>03-05-2022 09:24</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:38</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:39</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:41</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:42</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:48</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:49</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:51</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:52</t>
+  </si>
+  <si>
+    <t>03-05-2022 09:53</t>
   </si>
 </sst>
 </file>
@@ -462,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B44"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,6 +732,118 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
